--- a/ZF440N_0321/források/ZF440N_2fel.xlsx
+++ b/ZF440N_0321/források/ZF440N_2fel.xlsx
@@ -1,30 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TEMP.IIT.001\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gyuri\OS\ZF440NOsGyak\ZF440N_0321\források\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BFD9E6-1907-4BD7-AF1A-B5C36D870E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>P1</t>
   </si>
@@ -96,12 +107,15 @@
   </si>
   <si>
     <t>Átlagos várakozás</t>
+  </si>
+  <si>
+    <t>Átlag:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -193,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -211,9 +225,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -490,11 +516,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +528,7 @@
     <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
@@ -522,7 +548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -542,7 +568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -562,7 +588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -582,7 +608,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -602,7 +628,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -622,33 +648,47 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="7">
         <f>AVERAGE(B6:F6)</f>
         <v>4.666666666666667</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="10">
+        <v>3</v>
+      </c>
       <c r="C8" s="2">
-        <f>(SUM(B3:F3)+SUM(B6:F6))/5</f>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="D8" s="3">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3">
+        <v>19</v>
+      </c>
+      <c r="F8" s="4">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8">
+        <f>AVERAGE(B8:F8)</f>
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
@@ -668,7 +708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
@@ -688,7 +728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>6</v>
       </c>
@@ -708,7 +748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -728,7 +768,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>7</v>
       </c>
@@ -748,7 +788,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>8</v>
       </c>
@@ -768,40 +808,50 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="7">
         <f>AVERAGE(B22:F22)</f>
         <v>6.8</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="6"/>
+      <c r="B24" s="10">
+        <v>3</v>
+      </c>
       <c r="C24" s="2">
-        <f>(SUM(B19:F19)+SUM(B22:F22))/5</f>
+        <v>10</v>
+      </c>
+      <c r="D24" s="3">
+        <v>13</v>
+      </c>
+      <c r="E24" s="3">
+        <v>16</v>
+      </c>
+      <c r="F24" s="4">
+        <v>17</v>
+      </c>
+      <c r="G24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24">
+        <f>AVERAGE(B24:F24)</f>
         <v>11.8</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A24:B24"/>
+  <mergeCells count="2">
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
